--- a/02_ZEITPLAN/zeitplan_12.02.2020_v01.xlsx
+++ b/02_ZEITPLAN/zeitplan_12.02.2020_v01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Documents\IPA2020_JOSIAH_SCHIESS\02_ZEITPLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A362A0B-4722-4707-ACDD-0AEE0F13E405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EFBE24-AE9E-4E5C-B4F6-C5F5A17824C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{74D2615D-1CED-415F-A807-8E49B652F1F1}"/>
+    <workbookView xWindow="-25308" yWindow="444" windowWidth="25416" windowHeight="15972" firstSheet="1" activeTab="1" xr2:uid="{74D2615D-1CED-415F-A807-8E49B652F1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" state="hidden" r:id="rId1"/>
@@ -481,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -632,12 +632,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,9 +799,6 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -796,10 +806,22 @@
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,15 +833,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,13 +842,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,12 +854,21 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="476">
+  <dxfs count="475">
     <dxf>
       <fill>
         <patternFill>
@@ -3563,13 +3582,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -6726,20 +6738,20 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{D358EB39-5402-4C46-9F2A-171BDA283627}">
-      <tableStyleElement type="wholeTable" dxfId="475"/>
-      <tableStyleElement type="firstRowStripe" size="2" dxfId="474"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="473"/>
+      <tableStyleElement type="wholeTable" dxfId="474"/>
+      <tableStyleElement type="firstRowStripe" size="2" dxfId="473"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="472"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="1" xr9:uid="{17432AD6-5133-4768-9CB8-3D8E9497E6B6}">
-      <tableStyleElement type="wholeTable" dxfId="472"/>
+      <tableStyleElement type="wholeTable" dxfId="471"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium1 2" pivot="0" count="6" xr9:uid="{A9601B5F-C84B-47BE-967D-927BF2ECEE71}">
-      <tableStyleElement type="headerRow" dxfId="471"/>
-      <tableStyleElement type="totalRow" dxfId="470"/>
-      <tableStyleElement type="firstColumn" dxfId="469"/>
-      <tableStyleElement type="lastColumn" dxfId="468"/>
-      <tableStyleElement type="firstRowStripe" size="2" dxfId="467"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="466"/>
+      <tableStyleElement type="headerRow" dxfId="470"/>
+      <tableStyleElement type="totalRow" dxfId="469"/>
+      <tableStyleElement type="firstColumn" dxfId="468"/>
+      <tableStyleElement type="lastColumn" dxfId="467"/>
+      <tableStyleElement type="firstRowStripe" size="2" dxfId="466"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="465"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6963,14 +6975,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>13448</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>23475</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>2242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>26783</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>36810</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>177502</xdr:rowOff>
     </xdr:to>
@@ -6987,8 +6999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17741154" y="13460507"/>
-          <a:ext cx="360717" cy="365760"/>
+          <a:off x="19755264" y="13597926"/>
+          <a:ext cx="414388" cy="355734"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -7229,130 +7241,130 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06BA0CBE-7BC6-4DEE-A17A-09244DD72FD9}" name="Table2" displayName="Table2" ref="D5:AU82" headerRowCount="0" headerRowDxfId="384" dataDxfId="383" totalsRowDxfId="382">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06BA0CBE-7BC6-4DEE-A17A-09244DD72FD9}" name="Table2" displayName="Table2" ref="D5:AU82" headerRowCount="0" headerRowDxfId="383" dataDxfId="382" totalsRowDxfId="381">
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{EBE0DA32-2B9D-4905-B792-52D91EFAB6A3}" name="Column1" totalsRowFunction="custom" headerRowDxfId="381" dataDxfId="380" totalsRowDxfId="379">
+    <tableColumn id="1" xr3:uid="{EBE0DA32-2B9D-4905-B792-52D91EFAB6A3}" name="Column1" totalsRowFunction="custom" headerRowDxfId="380" dataDxfId="379" totalsRowDxfId="378">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column1]),2)=0,Table2[Column1],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B2A6618-6DE5-4B33-BFC5-B9EC645AE42C}" name="Column4" totalsRowFunction="custom" headerRowDxfId="378" dataDxfId="377" totalsRowDxfId="376">
+    <tableColumn id="4" xr3:uid="{3B2A6618-6DE5-4B33-BFC5-B9EC645AE42C}" name="Column4" totalsRowFunction="custom" headerRowDxfId="377" dataDxfId="376" totalsRowDxfId="375">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column4]),2)=0,Table2[Column4],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F80FC5B-0112-46CC-9D1A-918E0D2B3E53}" name="Column5" totalsRowFunction="custom" headerRowDxfId="375" dataDxfId="374" totalsRowDxfId="373">
+    <tableColumn id="5" xr3:uid="{5F80FC5B-0112-46CC-9D1A-918E0D2B3E53}" name="Column5" totalsRowFunction="custom" headerRowDxfId="374" dataDxfId="373" totalsRowDxfId="372">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column5]),2)=0,Table2[Column5],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{05F9AFB3-22E2-45EC-8F19-55B0AD7C1F3A}" name="Column8" totalsRowFunction="custom" headerRowDxfId="372" dataDxfId="371" totalsRowDxfId="370">
+    <tableColumn id="8" xr3:uid="{05F9AFB3-22E2-45EC-8F19-55B0AD7C1F3A}" name="Column8" totalsRowFunction="custom" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column8]),2)=0,Table2[Column8],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3DB7C9AF-3F6C-4B05-904D-8B90D9A9968C}" name="Column9" totalsRowFunction="custom" headerRowDxfId="369" dataDxfId="368" totalsRowDxfId="367">
+    <tableColumn id="9" xr3:uid="{3DB7C9AF-3F6C-4B05-904D-8B90D9A9968C}" name="Column9" totalsRowFunction="custom" headerRowDxfId="368" dataDxfId="367" totalsRowDxfId="366">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column9]),2)=0,Table2[Column9],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A0FCFEF7-5DD4-45C3-A475-68133702BCD4}" name="Column12" totalsRowFunction="custom" headerRowDxfId="366" dataDxfId="365" totalsRowDxfId="364">
+    <tableColumn id="12" xr3:uid="{A0FCFEF7-5DD4-45C3-A475-68133702BCD4}" name="Column12" totalsRowFunction="custom" headerRowDxfId="365" dataDxfId="364" totalsRowDxfId="363">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column12]),2)=0,Table2[Column12],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{25CFE149-D93E-4F70-8025-15EF1D53E69D}" name="Column13" totalsRowFunction="custom" headerRowDxfId="363" dataDxfId="362" totalsRowDxfId="361">
+    <tableColumn id="13" xr3:uid="{25CFE149-D93E-4F70-8025-15EF1D53E69D}" name="Column13" totalsRowFunction="custom" headerRowDxfId="362" dataDxfId="361" totalsRowDxfId="360">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column13]),2)=0,Table2[Column13],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{14153E7B-E98F-4187-A819-5BEFE214BD97}" name="Column14" totalsRowFunction="custom" headerRowDxfId="360" dataDxfId="359" totalsRowDxfId="358">
+    <tableColumn id="14" xr3:uid="{14153E7B-E98F-4187-A819-5BEFE214BD97}" name="Column14" totalsRowFunction="custom" headerRowDxfId="359" dataDxfId="358" totalsRowDxfId="357">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column14]),2)=0,Table2[Column14],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4DC1D364-C92F-4506-8269-C8EF14E22996}" name="Column17" totalsRowFunction="custom" headerRowDxfId="357" dataDxfId="356" totalsRowDxfId="355">
+    <tableColumn id="17" xr3:uid="{4DC1D364-C92F-4506-8269-C8EF14E22996}" name="Column17" totalsRowFunction="custom" headerRowDxfId="356" dataDxfId="355" totalsRowDxfId="354">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column17]),2)=0,Table2[Column17],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{7DCECA89-044A-44DD-9982-EBB2E88370D6}" name="Column20" totalsRowFunction="custom" headerRowDxfId="354" dataDxfId="353" totalsRowDxfId="352">
+    <tableColumn id="20" xr3:uid="{7DCECA89-044A-44DD-9982-EBB2E88370D6}" name="Column20" totalsRowFunction="custom" headerRowDxfId="353" dataDxfId="352" totalsRowDxfId="351">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column20]),2)=0,Table2[Column20],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5CDC9792-B059-48B6-A44F-EBD1A1A9360D}" name="Column21" totalsRowFunction="custom" headerRowDxfId="351" dataDxfId="350" totalsRowDxfId="349">
+    <tableColumn id="21" xr3:uid="{5CDC9792-B059-48B6-A44F-EBD1A1A9360D}" name="Column21" totalsRowFunction="custom" headerRowDxfId="350" dataDxfId="349" totalsRowDxfId="348">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column21]),2)=0,Table2[Column21],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{034C43B0-37EE-472D-BC3C-96266F94E2F8}" name="Column24" totalsRowFunction="custom" headerRowDxfId="348" dataDxfId="347" totalsRowDxfId="346">
+    <tableColumn id="24" xr3:uid="{034C43B0-37EE-472D-BC3C-96266F94E2F8}" name="Column24" totalsRowFunction="custom" headerRowDxfId="347" dataDxfId="346" totalsRowDxfId="345">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column24]),2)=0,Table2[Column24],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{4EAB1584-AFF6-4346-BF78-9879D3CE52C0}" name="Column25" totalsRowFunction="custom" headerRowDxfId="345" dataDxfId="344" totalsRowDxfId="343">
+    <tableColumn id="25" xr3:uid="{4EAB1584-AFF6-4346-BF78-9879D3CE52C0}" name="Column25" totalsRowFunction="custom" headerRowDxfId="344" dataDxfId="343" totalsRowDxfId="342">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column25]),2)=0,Table2[Column25],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{C3C358C9-C7AE-472E-BB93-1D762A17AA87}" name="Column28" totalsRowFunction="custom" headerRowDxfId="342" dataDxfId="341" totalsRowDxfId="340">
+    <tableColumn id="28" xr3:uid="{C3C358C9-C7AE-472E-BB93-1D762A17AA87}" name="Column28" totalsRowFunction="custom" headerRowDxfId="341" dataDxfId="340" totalsRowDxfId="339">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column28]),2)=0,Table2[Column28],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{C67DFD1A-93C5-4293-8F69-0165DD3CC799}" name="Column18" headerRowDxfId="339" dataDxfId="338" totalsRowDxfId="337"/>
-    <tableColumn id="23" xr3:uid="{C07CEBFE-AFC1-4555-A16C-DAA43F94EA5C}" name="Column19" headerRowDxfId="336" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="29" xr3:uid="{C4208F91-0E67-481F-A2E9-970880C7D07F}" name="Column29" totalsRowFunction="custom" headerRowDxfId="333" dataDxfId="332" totalsRowDxfId="331">
+    <tableColumn id="22" xr3:uid="{C67DFD1A-93C5-4293-8F69-0165DD3CC799}" name="Column18" headerRowDxfId="338" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="23" xr3:uid="{C07CEBFE-AFC1-4555-A16C-DAA43F94EA5C}" name="Column19" headerRowDxfId="335" dataDxfId="334" totalsRowDxfId="333"/>
+    <tableColumn id="29" xr3:uid="{C4208F91-0E67-481F-A2E9-970880C7D07F}" name="Column29" totalsRowFunction="custom" headerRowDxfId="332" dataDxfId="331" totalsRowDxfId="330">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column29]),2)=0,Table2[Column29],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{3F85B9C0-789F-45D2-BE55-FB1E67E9B1EA}" name="Column32" totalsRowFunction="custom" headerRowDxfId="330" dataDxfId="329" totalsRowDxfId="328">
+    <tableColumn id="32" xr3:uid="{3F85B9C0-789F-45D2-BE55-FB1E67E9B1EA}" name="Column32" totalsRowFunction="custom" headerRowDxfId="329" dataDxfId="328" totalsRowDxfId="327">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column32]),2)=0,Table2[Column32],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{D1F2422B-B5B7-44A9-9DD3-8F8779D8198C}" name="Column33" totalsRowFunction="custom" headerRowDxfId="327" dataDxfId="326" totalsRowDxfId="325">
+    <tableColumn id="33" xr3:uid="{D1F2422B-B5B7-44A9-9DD3-8F8779D8198C}" name="Column33" totalsRowFunction="custom" headerRowDxfId="326" dataDxfId="325" totalsRowDxfId="324">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column33]),2)=0,Table2[Column33],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{A2485684-D006-42A9-BFEF-B4DECC95678B}" name="Column36" totalsRowFunction="custom" headerRowDxfId="324" dataDxfId="323" totalsRowDxfId="322">
+    <tableColumn id="36" xr3:uid="{A2485684-D006-42A9-BFEF-B4DECC95678B}" name="Column36" totalsRowFunction="custom" headerRowDxfId="323" dataDxfId="322" totalsRowDxfId="321">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column36]),2)=0,Table2[Column36],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{10B29021-2BCD-4F79-B61C-3A8149068E58}" name="Column37" totalsRowFunction="custom" headerRowDxfId="321" dataDxfId="320" totalsRowDxfId="319">
+    <tableColumn id="37" xr3:uid="{10B29021-2BCD-4F79-B61C-3A8149068E58}" name="Column37" totalsRowFunction="custom" headerRowDxfId="320" dataDxfId="319" totalsRowDxfId="318">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column37]),2)=0,Table2[Column37],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{14C8F51F-5DDE-432C-8A37-C020414D8108}" name="Column40" totalsRowFunction="custom" headerRowDxfId="318" dataDxfId="317" totalsRowDxfId="316">
+    <tableColumn id="40" xr3:uid="{14C8F51F-5DDE-432C-8A37-C020414D8108}" name="Column40" totalsRowFunction="custom" headerRowDxfId="317" dataDxfId="316" totalsRowDxfId="315">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column40]),2)=0,Table2[Column40],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{365F4E55-1AB1-4B70-9834-CCF30FC8CF8A}" name="Column41" totalsRowFunction="custom" headerRowDxfId="315" dataDxfId="314" totalsRowDxfId="313">
+    <tableColumn id="41" xr3:uid="{365F4E55-1AB1-4B70-9834-CCF30FC8CF8A}" name="Column41" totalsRowFunction="custom" headerRowDxfId="314" dataDxfId="313" totalsRowDxfId="312">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column41]),2)=0,Table2[Column41],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{5ECD0C0F-49AA-47CB-83F6-B6D52786AD06}" name="Column44" totalsRowFunction="custom" headerRowDxfId="312" dataDxfId="311" totalsRowDxfId="310">
+    <tableColumn id="44" xr3:uid="{5ECD0C0F-49AA-47CB-83F6-B6D52786AD06}" name="Column44" totalsRowFunction="custom" headerRowDxfId="311" dataDxfId="310" totalsRowDxfId="309">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column44]),2)=0,Table2[Column44],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{C92386EA-6C71-4FFA-B2B5-97D6A8EF7741}" name="Column45" totalsRowFunction="custom" headerRowDxfId="309" dataDxfId="308" totalsRowDxfId="307">
+    <tableColumn id="45" xr3:uid="{C92386EA-6C71-4FFA-B2B5-97D6A8EF7741}" name="Column45" totalsRowFunction="custom" headerRowDxfId="308" dataDxfId="307" totalsRowDxfId="306">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column45]),2)=0,Table2[Column45],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{285A7A87-1F74-4820-B690-D879729029ED}" name="Column48" totalsRowFunction="custom" headerRowDxfId="306" dataDxfId="305" totalsRowDxfId="304">
+    <tableColumn id="48" xr3:uid="{285A7A87-1F74-4820-B690-D879729029ED}" name="Column48" totalsRowFunction="custom" headerRowDxfId="305" dataDxfId="304" totalsRowDxfId="303">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column48]),2)=0,Table2[Column48],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{72634CFA-2769-4C83-AA0E-821E22D8068D}" name="Column49" totalsRowFunction="custom" headerRowDxfId="303" dataDxfId="302" totalsRowDxfId="301">
+    <tableColumn id="49" xr3:uid="{72634CFA-2769-4C83-AA0E-821E22D8068D}" name="Column49" totalsRowFunction="custom" headerRowDxfId="302" dataDxfId="301" totalsRowDxfId="300">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column49]),2)=0,Table2[Column49],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{56FB826E-27F2-46F0-9D4E-061FF5EA9DB2}" name="Column52" totalsRowFunction="custom" headerRowDxfId="300" dataDxfId="299" totalsRowDxfId="298">
+    <tableColumn id="52" xr3:uid="{56FB826E-27F2-46F0-9D4E-061FF5EA9DB2}" name="Column52" totalsRowFunction="custom" headerRowDxfId="299" dataDxfId="298" totalsRowDxfId="297">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column52]),2)=0,Table2[Column52],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{6163900D-45A1-4615-815E-0A527D7C94B6}" name="Column53" totalsRowFunction="custom" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
+    <tableColumn id="53" xr3:uid="{6163900D-45A1-4615-815E-0A527D7C94B6}" name="Column53" totalsRowFunction="custom" headerRowDxfId="296" dataDxfId="295" totalsRowDxfId="294">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column53]),2)=0,Table2[Column53],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="56" xr3:uid="{BA09CB1F-6521-4B3E-B577-E494362724BA}" name="Column56" totalsRowFunction="custom" headerRowDxfId="294" dataDxfId="293" totalsRowDxfId="292">
+    <tableColumn id="56" xr3:uid="{BA09CB1F-6521-4B3E-B577-E494362724BA}" name="Column56" totalsRowFunction="custom" headerRowDxfId="293" dataDxfId="292" totalsRowDxfId="291">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column56]),2)=0,Table2[Column56],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{5C09A164-472C-4DC2-99FA-AF40E11FFB05}" name="Column10" headerRowDxfId="291" dataDxfId="290" totalsRowDxfId="289"/>
-    <tableColumn id="31" xr3:uid="{4C40BC79-F709-4F4F-9227-A1C27C91745F}" name="Column11" headerRowDxfId="288" dataDxfId="287" totalsRowDxfId="286"/>
-    <tableColumn id="61" xr3:uid="{4247FD68-0A21-46B1-A857-BB617B59C6B1}" name="Column61" totalsRowFunction="custom" headerRowDxfId="285" dataDxfId="284" totalsRowDxfId="283">
+    <tableColumn id="30" xr3:uid="{5C09A164-472C-4DC2-99FA-AF40E11FFB05}" name="Column10" headerRowDxfId="290" dataDxfId="289" totalsRowDxfId="288"/>
+    <tableColumn id="31" xr3:uid="{4C40BC79-F709-4F4F-9227-A1C27C91745F}" name="Column11" headerRowDxfId="287" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="61" xr3:uid="{4247FD68-0A21-46B1-A857-BB617B59C6B1}" name="Column61" totalsRowFunction="custom" headerRowDxfId="284" dataDxfId="283" totalsRowDxfId="282">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column61]),2)=0,Table2[Column61],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="64" xr3:uid="{6DE697B7-5705-4BCA-A63A-D559741E7411}" name="Column64" totalsRowFunction="custom" headerRowDxfId="282" dataDxfId="281" totalsRowDxfId="280">
+    <tableColumn id="64" xr3:uid="{6DE697B7-5705-4BCA-A63A-D559741E7411}" name="Column64" totalsRowFunction="custom" headerRowDxfId="281" dataDxfId="280" totalsRowDxfId="279">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column64]),2)=0,Table2[Column64],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="65" xr3:uid="{1B495497-5A01-4531-9A33-27C807284511}" name="Column65" totalsRowFunction="custom" headerRowDxfId="279" dataDxfId="278" totalsRowDxfId="277">
+    <tableColumn id="65" xr3:uid="{1B495497-5A01-4531-9A33-27C807284511}" name="Column65" totalsRowFunction="custom" headerRowDxfId="278" dataDxfId="277" totalsRowDxfId="276">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column65]),2)=0,Table2[Column65],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="68" xr3:uid="{CFB8FCE1-0A72-4AB7-B371-07682CF2DF09}" name="Column68" totalsRowFunction="custom" headerRowDxfId="276" dataDxfId="275" totalsRowDxfId="274">
+    <tableColumn id="68" xr3:uid="{CFB8FCE1-0A72-4AB7-B371-07682CF2DF09}" name="Column68" totalsRowFunction="custom" headerRowDxfId="275" dataDxfId="274" totalsRowDxfId="273">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column68]),2)=0,Table2[Column68],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="69" xr3:uid="{EAF02A7C-34E8-4A28-819A-2268FFA83F16}" name="Column69" totalsRowFunction="custom" headerRowDxfId="273" dataDxfId="272" totalsRowDxfId="271">
+    <tableColumn id="69" xr3:uid="{EAF02A7C-34E8-4A28-819A-2268FFA83F16}" name="Column69" totalsRowFunction="custom" headerRowDxfId="272" dataDxfId="271" totalsRowDxfId="270">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column69]),2)=0,Table2[Column69],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="72" xr3:uid="{FF8F9A6C-0658-46C4-88A2-1EF288D67B2D}" name="Column72" totalsRowFunction="custom" headerRowDxfId="270" dataDxfId="269" totalsRowDxfId="268">
+    <tableColumn id="72" xr3:uid="{FF8F9A6C-0658-46C4-88A2-1EF288D67B2D}" name="Column72" totalsRowFunction="custom" headerRowDxfId="269" dataDxfId="268" totalsRowDxfId="267">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column72]),2)=0,Table2[Column72],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="73" xr3:uid="{2817AA71-3B1B-4508-A3B0-B73ACCAB4ED9}" name="Column73" totalsRowFunction="custom" headerRowDxfId="267" dataDxfId="266" totalsRowDxfId="265">
+    <tableColumn id="73" xr3:uid="{2817AA71-3B1B-4508-A3B0-B73ACCAB4ED9}" name="Column73" totalsRowFunction="custom" headerRowDxfId="266" dataDxfId="265" totalsRowDxfId="264">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column73]),2)=0,Table2[Column73],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="76" xr3:uid="{6AEB36FC-AFEB-4CC0-A2DA-F4866E401A6A}" name="Column76" totalsRowFunction="custom" headerRowDxfId="264" dataDxfId="263" totalsRowDxfId="262">
+    <tableColumn id="76" xr3:uid="{6AEB36FC-AFEB-4CC0-A2DA-F4866E401A6A}" name="Column76" totalsRowFunction="custom" headerRowDxfId="263" dataDxfId="262" totalsRowDxfId="261">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column76]),2)=0,Table2[Column76],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2CBC9629-DB4D-4F03-871F-BA53ED3608CB}" name="Column2" totalsRowFunction="custom" headerRowDxfId="261" dataDxfId="260" totalsRowDxfId="259">
+    <tableColumn id="2" xr3:uid="{2CBC9629-DB4D-4F03-871F-BA53ED3608CB}" name="Column2" totalsRowFunction="custom" headerRowDxfId="260" dataDxfId="259" totalsRowDxfId="258">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column2]),2)=0,Table2[Column2],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{15407C94-246F-4000-9C64-0AE30C0919C1}" name="Column3" totalsRowFunction="custom" headerRowDxfId="258" dataDxfId="257" totalsRowDxfId="256">
+    <tableColumn id="3" xr3:uid="{15407C94-246F-4000-9C64-0AE30C0919C1}" name="Column3" totalsRowFunction="custom" headerRowDxfId="257" dataDxfId="256" totalsRowDxfId="255">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column3]),2)=0,Table2[Column3],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B4B37567-F277-418E-8E91-A7C71876743A}" name="Column6" totalsRowFunction="custom" headerRowDxfId="255" dataDxfId="254" totalsRowDxfId="253">
+    <tableColumn id="6" xr3:uid="{B4B37567-F277-418E-8E91-A7C71876743A}" name="Column6" totalsRowFunction="custom" headerRowDxfId="254" dataDxfId="253" totalsRowDxfId="252">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column6]),2)=0,Table2[Column6],0))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C33E796A-9F8C-4D48-B63D-830F42003471}" name="Column7" totalsRowFunction="custom" headerRowDxfId="252" dataDxfId="251" totalsRowDxfId="250">
+    <tableColumn id="7" xr3:uid="{C33E796A-9F8C-4D48-B63D-830F42003471}" name="Column7" totalsRowFunction="custom" headerRowDxfId="251" dataDxfId="250" totalsRowDxfId="249">
       <totalsRowFormula array="1">SUM(IF(MOD(1+ ROW( Table2[Column7]),2)=0,Table2[Column7],0))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -7813,153 +7825,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="64" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="64" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="64" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="64" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="64" t="s">
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="64" t="s">
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="64" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="64" t="s">
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="64" t="s">
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="66"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="69"/>
       <c r="AV1" s="29"/>
     </row>
     <row r="2" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="27"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="67" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="67" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="67" t="s">
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="67" t="s">
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="67" t="s">
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="67" t="s">
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="67" t="s">
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="67" t="s">
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="67" t="s">
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="69"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="65"/>
       <c r="AV2" s="30"/>
     </row>
     <row r="3" spans="1:48" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
@@ -7974,86 +7986,86 @@
         <v>28</v>
       </c>
       <c r="G3" s="72"/>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68" t="s">
+      <c r="I3" s="64"/>
+      <c r="J3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="67" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="67" t="s">
+      <c r="O3" s="64"/>
+      <c r="P3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="69"/>
-      <c r="T3" s="67" t="s">
+      <c r="S3" s="65"/>
+      <c r="T3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68" t="s">
+      <c r="U3" s="64"/>
+      <c r="V3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="69"/>
-      <c r="X3" s="67" t="s">
+      <c r="W3" s="65"/>
+      <c r="X3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68" t="s">
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="67" t="s">
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68" t="s">
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="67" t="s">
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68" t="s">
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="68" t="s">
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68" t="s">
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="67" t="s">
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68" t="s">
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="67" t="s">
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68" t="s">
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AU3" s="69"/>
+      <c r="AU3" s="65"/>
       <c r="AV3" s="31"/>
     </row>
     <row r="4" spans="1:48" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8108,14 +8120,14 @@
       <c r="AU4" s="28"/>
     </row>
     <row r="5" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>5</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="73">
         <f>SUM(D6:AU6)</f>
         <v>0</v>
       </c>
@@ -8205,9 +8217,9 @@
       </c>
     </row>
     <row r="6" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
@@ -8254,14 +8266,14 @@
       <c r="AU6" s="32"/>
     </row>
     <row r="7" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>5</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="73">
         <f>SUM(D8:AU8)</f>
         <v>0</v>
       </c>
@@ -8351,9 +8363,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -8400,14 +8412,14 @@
       <c r="AU8" s="32"/>
     </row>
     <row r="9" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="73">
         <f>SUM(D10:AU10)</f>
         <v>0.5</v>
       </c>
@@ -8461,9 +8473,9 @@
       <c r="AU9" s="32"/>
     </row>
     <row r="10" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="32">
         <v>0.5</v>
       </c>
@@ -8512,14 +8524,14 @@
       <c r="AU10" s="32"/>
     </row>
     <row r="11" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="73">
         <f>SUM(D12:AU12)</f>
         <v>0</v>
       </c>
@@ -8573,9 +8585,9 @@
       <c r="AU11" s="32"/>
     </row>
     <row r="12" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -8722,14 +8734,14 @@
       <c r="AU14" s="33"/>
     </row>
     <row r="15" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>2.25</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="73">
         <f>SUM(D16:AU16)</f>
         <v>1.5</v>
       </c>
@@ -8783,9 +8795,9 @@
       <c r="AU15" s="32"/>
     </row>
     <row r="16" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="32">
         <v>1.5</v>
       </c>
@@ -8834,14 +8846,14 @@
       <c r="AU16" s="32"/>
     </row>
     <row r="17" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1.25</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="73">
         <f>SUM(D18:AU18)</f>
         <v>0</v>
       </c>
@@ -8895,9 +8907,9 @@
       <c r="AU17" s="32"/>
     </row>
     <row r="18" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -8944,14 +8956,14 @@
       <c r="AU18" s="32"/>
     </row>
     <row r="19" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="73">
         <f>SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -9003,9 +9015,9 @@
       <c r="AU19" s="32"/>
     </row>
     <row r="20" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -9052,14 +9064,14 @@
       <c r="AU20" s="32"/>
     </row>
     <row r="21" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="73">
         <f>SUM(D22:AU22)</f>
         <v>0</v>
       </c>
@@ -9111,9 +9123,9 @@
       <c r="AU21" s="32"/>
     </row>
     <row r="22" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
@@ -9160,14 +9172,14 @@
       <c r="AU22" s="32"/>
     </row>
     <row r="23" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="73">
         <f>SUM(D24:AU24)</f>
         <v>0</v>
       </c>
@@ -9221,9 +9233,9 @@
       <c r="AU23" s="32"/>
     </row>
     <row r="24" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -9270,14 +9282,14 @@
       <c r="AU24" s="32"/>
     </row>
     <row r="25" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="73">
         <f>SUM(D26:AU26)</f>
         <v>0</v>
       </c>
@@ -9329,9 +9341,9 @@
       <c r="AU25" s="32"/>
     </row>
     <row r="26" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -9378,14 +9390,14 @@
       <c r="AU26" s="32"/>
     </row>
     <row r="27" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="73">
         <f>SUM(D28:AU28)</f>
         <v>0</v>
       </c>
@@ -9437,9 +9449,9 @@
       <c r="AU27" s="32"/>
     </row>
     <row r="28" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -9486,14 +9498,14 @@
       <c r="AU28" s="32"/>
     </row>
     <row r="29" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>0.75</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="73">
         <f>SUM(D30:AU30)</f>
         <v>0</v>
       </c>
@@ -9545,9 +9557,9 @@
       <c r="AU29" s="32"/>
     </row>
     <row r="30" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -9794,14 +9806,14 @@
       <c r="AU34" s="32"/>
     </row>
     <row r="35" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>0.75</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="73">
         <f>SUM(D36:AU36)</f>
         <v>0</v>
       </c>
@@ -9853,9 +9865,9 @@
       <c r="AU35" s="32"/>
     </row>
     <row r="36" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
@@ -9902,14 +9914,14 @@
       <c r="AU36" s="32"/>
     </row>
     <row r="37" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>0.25</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="73">
         <f>SUM(D38:AU38)</f>
         <v>0</v>
       </c>
@@ -9961,9 +9973,9 @@
       <c r="AU37" s="32"/>
     </row>
     <row r="38" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -10010,14 +10022,14 @@
       <c r="AU38" s="32"/>
     </row>
     <row r="39" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1.5</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="73">
         <f>SUM(D40:AU40)</f>
         <v>0</v>
       </c>
@@ -10071,9 +10083,9 @@
       <c r="AU39" s="32"/>
     </row>
     <row r="40" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
@@ -10120,14 +10132,14 @@
       <c r="AU40" s="32"/>
     </row>
     <row r="41" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>0.75</v>
       </c>
-      <c r="C41" s="62">
+      <c r="C41" s="73">
         <f>SUM(D42:AU42)</f>
         <v>0</v>
       </c>
@@ -10179,9 +10191,9 @@
       <c r="AU41" s="32"/>
     </row>
     <row r="42" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
@@ -10228,14 +10240,14 @@
       <c r="AU42" s="32"/>
     </row>
     <row r="43" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="73">
         <f>SUM(D44:AU44)</f>
         <v>0</v>
       </c>
@@ -10287,9 +10299,9 @@
       <c r="AU43" s="32"/>
     </row>
     <row r="44" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
@@ -10436,14 +10448,14 @@
       <c r="AU46" s="33"/>
     </row>
     <row r="47" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="62">
+      <c r="B47" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C47" s="62">
+      <c r="C47" s="73">
         <f>SUM(D48:AU48)</f>
         <v>0</v>
       </c>
@@ -10495,9 +10507,9 @@
       <c r="AU47" s="32"/>
     </row>
     <row r="48" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
@@ -10544,14 +10556,14 @@
       <c r="AU48" s="32"/>
     </row>
     <row r="49" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="62">
+      <c r="B49" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>3.25</v>
       </c>
-      <c r="C49" s="62">
+      <c r="C49" s="73">
         <f>SUM(D50:AU50)</f>
         <v>0</v>
       </c>
@@ -10609,9 +10621,9 @@
       <c r="AU49" s="32"/>
     </row>
     <row r="50" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -10658,14 +10670,14 @@
       <c r="AU50" s="32"/>
     </row>
     <row r="51" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>3.5</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="73">
         <f>SUM(D52:AU52)</f>
         <v>0</v>
       </c>
@@ -10719,9 +10731,9 @@
       <c r="AU51" s="32"/>
     </row>
     <row r="52" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
@@ -10768,14 +10780,14 @@
       <c r="AU52" s="32"/>
     </row>
     <row r="53" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B53" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>3.5</v>
       </c>
-      <c r="C53" s="62">
+      <c r="C53" s="73">
         <f>SUM(D54:AU54)</f>
         <v>0</v>
       </c>
@@ -10829,9 +10841,9 @@
       <c r="AU53" s="32"/>
     </row>
     <row r="54" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
@@ -10878,14 +10890,14 @@
       <c r="AU54" s="32"/>
     </row>
     <row r="55" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="62">
+      <c r="B55" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>5</v>
       </c>
-      <c r="C55" s="62">
+      <c r="C55" s="73">
         <f>SUM(D56:AU56)</f>
         <v>0</v>
       </c>
@@ -10941,9 +10953,9 @@
       <c r="AU55" s="32"/>
     </row>
     <row r="56" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
@@ -11090,14 +11102,14 @@
       <c r="AU58" s="34"/>
     </row>
     <row r="59" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="62">
+      <c r="B59" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C59" s="62">
+      <c r="C59" s="73">
         <f>SUM(D60:AU60)</f>
         <v>0</v>
       </c>
@@ -11149,9 +11161,9 @@
       <c r="AU59" s="32"/>
     </row>
     <row r="60" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
@@ -11198,14 +11210,14 @@
       <c r="AU60" s="32"/>
     </row>
     <row r="61" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="62">
+      <c r="B61" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>2.5</v>
       </c>
-      <c r="C61" s="62">
+      <c r="C61" s="73">
         <f>SUM(D62:AU62)</f>
         <v>0</v>
       </c>
@@ -11259,9 +11271,9 @@
       <c r="AU61" s="32"/>
     </row>
     <row r="62" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
@@ -11308,14 +11320,14 @@
       <c r="AU62" s="32"/>
     </row>
     <row r="63" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="62">
+      <c r="B63" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="C63" s="62">
+      <c r="C63" s="73">
         <f>SUM(D64:AU64)</f>
         <v>0</v>
       </c>
@@ -11367,9 +11379,9 @@
       <c r="AU63" s="32"/>
     </row>
     <row r="64" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
@@ -11416,14 +11428,14 @@
       <c r="AU64" s="32"/>
     </row>
     <row r="65" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="62">
+      <c r="B65" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>5.5</v>
       </c>
-      <c r="C65" s="62">
+      <c r="C65" s="73">
         <f>SUM(D66:AU66)</f>
         <v>0</v>
       </c>
@@ -11481,9 +11493,9 @@
       <c r="AU65" s="32"/>
     </row>
     <row r="66" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
@@ -11530,14 +11542,14 @@
       <c r="AU66" s="32"/>
     </row>
     <row r="67" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="62">
+      <c r="B67" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C67" s="62">
+      <c r="C67" s="73">
         <f>SUM(D68:AU68)</f>
         <v>0</v>
       </c>
@@ -11589,9 +11601,9 @@
       <c r="AU67" s="32"/>
     </row>
     <row r="68" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
@@ -11638,14 +11650,14 @@
       <c r="AU68" s="32"/>
     </row>
     <row r="69" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="62">
+      <c r="B69" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>7</v>
       </c>
-      <c r="C69" s="62">
+      <c r="C69" s="73">
         <f>SUM(D70:AU70)</f>
         <v>0</v>
       </c>
@@ -11703,9 +11715,9 @@
       <c r="AU69" s="32"/>
     </row>
     <row r="70" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
@@ -11752,14 +11764,14 @@
       <c r="AU70" s="32"/>
     </row>
     <row r="71" spans="1:47" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="62">
+      <c r="B71" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>5.5</v>
       </c>
-      <c r="C71" s="62">
+      <c r="C71" s="73">
         <f>SUM(D72:AU72)</f>
         <v>0</v>
       </c>
@@ -11817,9 +11829,9 @@
       <c r="AU71" s="32"/>
     </row>
     <row r="72" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
@@ -11866,14 +11878,14 @@
       <c r="AU72" s="32"/>
     </row>
     <row r="73" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="62">
+      <c r="B73" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>3.5</v>
       </c>
-      <c r="C73" s="62">
+      <c r="C73" s="73">
         <f>SUM(D74:AU74)</f>
         <v>0</v>
       </c>
@@ -11927,9 +11939,9 @@
       <c r="AU73" s="32"/>
     </row>
     <row r="74" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -11976,14 +11988,14 @@
       <c r="AU74" s="32"/>
     </row>
     <row r="75" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B75" s="62">
+      <c r="B75" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>7</v>
       </c>
-      <c r="C75" s="62">
+      <c r="C75" s="73">
         <f>SUM(D76:AU76)</f>
         <v>0</v>
       </c>
@@ -12041,9 +12053,9 @@
       <c r="AU75" s="32"/>
     </row>
     <row r="76" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="73"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
@@ -12190,14 +12202,14 @@
       <c r="AU78" s="33"/>
     </row>
     <row r="79" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="62">
+      <c r="B79" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>0.25</v>
       </c>
-      <c r="C79" s="62">
+      <c r="C79" s="73">
         <f>SUM(D80:AU80)</f>
         <v>0</v>
       </c>
@@ -12249,9 +12261,9 @@
       <c r="AU79" s="32"/>
     </row>
     <row r="80" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
+      <c r="A80" s="74"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
@@ -12298,14 +12310,14 @@
       <c r="AU80" s="32"/>
     </row>
     <row r="81" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="63" t="s">
+      <c r="A81" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="62">
+      <c r="B81" s="73">
         <f>SUM(Table2[#This Row])</f>
         <v>5</v>
       </c>
-      <c r="C81" s="62">
+      <c r="C81" s="73">
         <f>SUM(D82:AU82)</f>
         <v>0</v>
       </c>
@@ -12363,9 +12375,9 @@
       </c>
     </row>
     <row r="82" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
+      <c r="A82" s="74"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
@@ -12714,153 +12726,153 @@
       </c>
     </row>
     <row r="85" spans="1:48" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69" t="s">
+      <c r="A85" s="65" t="s">
         <v>31</v>
       </c>
       <c r="B85" s="27"/>
       <c r="C85" s="13"/>
-      <c r="D85" s="64" t="s">
+      <c r="D85" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="64" t="s">
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="64" t="s">
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M85" s="65"/>
-      <c r="N85" s="65"/>
-      <c r="O85" s="66"/>
-      <c r="P85" s="64" t="s">
+      <c r="M85" s="68"/>
+      <c r="N85" s="68"/>
+      <c r="O85" s="69"/>
+      <c r="P85" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q85" s="65"/>
-      <c r="R85" s="65"/>
-      <c r="S85" s="66"/>
-      <c r="T85" s="64" t="s">
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
+      <c r="S85" s="69"/>
+      <c r="T85" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="U85" s="65"/>
-      <c r="V85" s="65"/>
-      <c r="W85" s="66"/>
-      <c r="X85" s="64" t="s">
+      <c r="U85" s="68"/>
+      <c r="V85" s="68"/>
+      <c r="W85" s="69"/>
+      <c r="X85" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="Y85" s="65"/>
-      <c r="Z85" s="65"/>
-      <c r="AA85" s="66"/>
-      <c r="AB85" s="64" t="s">
+      <c r="Y85" s="68"/>
+      <c r="Z85" s="68"/>
+      <c r="AA85" s="69"/>
+      <c r="AB85" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AC85" s="65"/>
-      <c r="AD85" s="65"/>
-      <c r="AE85" s="66"/>
-      <c r="AF85" s="64" t="s">
+      <c r="AC85" s="68"/>
+      <c r="AD85" s="68"/>
+      <c r="AE85" s="69"/>
+      <c r="AF85" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AG85" s="65"/>
-      <c r="AH85" s="65"/>
-      <c r="AI85" s="66"/>
-      <c r="AJ85" s="64" t="s">
+      <c r="AG85" s="68"/>
+      <c r="AH85" s="68"/>
+      <c r="AI85" s="69"/>
+      <c r="AJ85" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AK85" s="65"/>
-      <c r="AL85" s="65"/>
-      <c r="AM85" s="66"/>
-      <c r="AN85" s="64" t="s">
+      <c r="AK85" s="68"/>
+      <c r="AL85" s="68"/>
+      <c r="AM85" s="69"/>
+      <c r="AN85" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AO85" s="65"/>
-      <c r="AP85" s="65"/>
-      <c r="AQ85" s="66"/>
-      <c r="AR85" s="64" t="s">
+      <c r="AO85" s="68"/>
+      <c r="AP85" s="68"/>
+      <c r="AQ85" s="69"/>
+      <c r="AR85" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AS85" s="65"/>
-      <c r="AT85" s="65"/>
-      <c r="AU85" s="66"/>
+      <c r="AS85" s="68"/>
+      <c r="AT85" s="68"/>
+      <c r="AU85" s="69"/>
       <c r="AV85" s="29"/>
     </row>
     <row r="86" spans="1:48" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="27"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="67" t="s">
+      <c r="D86" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="67" t="s">
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="69"/>
-      <c r="L86" s="67" t="s">
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M86" s="68"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="69"/>
-      <c r="P86" s="67" t="s">
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="69"/>
-      <c r="T86" s="67" t="s">
+      <c r="Q86" s="64"/>
+      <c r="R86" s="64"/>
+      <c r="S86" s="65"/>
+      <c r="T86" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="U86" s="68"/>
-      <c r="V86" s="68"/>
-      <c r="W86" s="69"/>
-      <c r="X86" s="67" t="s">
+      <c r="U86" s="64"/>
+      <c r="V86" s="64"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Y86" s="68"/>
-      <c r="Z86" s="68"/>
-      <c r="AA86" s="69"/>
-      <c r="AB86" s="67" t="s">
+      <c r="Y86" s="64"/>
+      <c r="Z86" s="64"/>
+      <c r="AA86" s="65"/>
+      <c r="AB86" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AC86" s="68"/>
-      <c r="AD86" s="68"/>
-      <c r="AE86" s="69"/>
-      <c r="AF86" s="67" t="s">
+      <c r="AC86" s="64"/>
+      <c r="AD86" s="64"/>
+      <c r="AE86" s="65"/>
+      <c r="AF86" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AG86" s="68"/>
-      <c r="AH86" s="68"/>
-      <c r="AI86" s="69"/>
-      <c r="AJ86" s="67" t="s">
+      <c r="AG86" s="64"/>
+      <c r="AH86" s="64"/>
+      <c r="AI86" s="65"/>
+      <c r="AJ86" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AK86" s="68"/>
-      <c r="AL86" s="68"/>
-      <c r="AM86" s="69"/>
-      <c r="AN86" s="67" t="s">
+      <c r="AK86" s="64"/>
+      <c r="AL86" s="64"/>
+      <c r="AM86" s="65"/>
+      <c r="AN86" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AO86" s="68"/>
-      <c r="AP86" s="68"/>
-      <c r="AQ86" s="69"/>
-      <c r="AR86" s="67" t="s">
+      <c r="AO86" s="64"/>
+      <c r="AP86" s="64"/>
+      <c r="AQ86" s="65"/>
+      <c r="AR86" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AS86" s="68"/>
-      <c r="AT86" s="68"/>
-      <c r="AU86" s="69"/>
+      <c r="AS86" s="64"/>
+      <c r="AT86" s="64"/>
+      <c r="AU86" s="65"/>
       <c r="AV86" s="30"/>
     </row>
     <row r="87" spans="1:48" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="27" t="s">
         <v>15</v>
       </c>
@@ -12875,111 +12887,234 @@
         <v>28</v>
       </c>
       <c r="G87" s="72"/>
-      <c r="H87" s="67" t="s">
+      <c r="H87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68" t="s">
+      <c r="I87" s="64"/>
+      <c r="J87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="69"/>
-      <c r="L87" s="67" t="s">
+      <c r="K87" s="65"/>
+      <c r="L87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="M87" s="68"/>
-      <c r="N87" s="68" t="s">
+      <c r="M87" s="64"/>
+      <c r="N87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="O87" s="68"/>
-      <c r="P87" s="67" t="s">
+      <c r="O87" s="64"/>
+      <c r="P87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="68" t="s">
+      <c r="Q87" s="64"/>
+      <c r="R87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="S87" s="69"/>
-      <c r="T87" s="67" t="s">
+      <c r="S87" s="65"/>
+      <c r="T87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="U87" s="68"/>
-      <c r="V87" s="68" t="s">
+      <c r="U87" s="64"/>
+      <c r="V87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="W87" s="69"/>
-      <c r="X87" s="67" t="s">
+      <c r="W87" s="65"/>
+      <c r="X87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="Y87" s="68"/>
-      <c r="Z87" s="68" t="s">
+      <c r="Y87" s="64"/>
+      <c r="Z87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AA87" s="69"/>
-      <c r="AB87" s="67" t="s">
+      <c r="AA87" s="65"/>
+      <c r="AB87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AC87" s="68"/>
-      <c r="AD87" s="68" t="s">
+      <c r="AC87" s="64"/>
+      <c r="AD87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AE87" s="69"/>
-      <c r="AF87" s="67" t="s">
+      <c r="AE87" s="65"/>
+      <c r="AF87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AG87" s="68"/>
-      <c r="AH87" s="68" t="s">
+      <c r="AG87" s="64"/>
+      <c r="AH87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AI87" s="69"/>
-      <c r="AJ87" s="68" t="s">
+      <c r="AI87" s="65"/>
+      <c r="AJ87" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AK87" s="68"/>
-      <c r="AL87" s="68" t="s">
+      <c r="AK87" s="64"/>
+      <c r="AL87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AM87" s="69"/>
-      <c r="AN87" s="67" t="s">
+      <c r="AM87" s="65"/>
+      <c r="AN87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AO87" s="68"/>
-      <c r="AP87" s="68" t="s">
+      <c r="AO87" s="64"/>
+      <c r="AP87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AQ87" s="69"/>
-      <c r="AR87" s="67" t="s">
+      <c r="AQ87" s="65"/>
+      <c r="AR87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AS87" s="68"/>
-      <c r="AT87" s="68" t="s">
+      <c r="AS87" s="64"/>
+      <c r="AT87" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AU87" s="69"/>
+      <c r="AU87" s="65"/>
       <c r="AV87" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="AH87:AI87"/>
-    <mergeCell ref="AJ87:AK87"/>
-    <mergeCell ref="AL87:AM87"/>
-    <mergeCell ref="AN87:AO87"/>
-    <mergeCell ref="AP87:AQ87"/>
-    <mergeCell ref="AR87:AS87"/>
-    <mergeCell ref="AT87:AU87"/>
-    <mergeCell ref="AJ85:AM85"/>
-    <mergeCell ref="AN85:AQ85"/>
-    <mergeCell ref="AR85:AU85"/>
-    <mergeCell ref="AN86:AQ86"/>
-    <mergeCell ref="AR86:AU86"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="P86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:AA86"/>
-    <mergeCell ref="AB86:AE86"/>
-    <mergeCell ref="AF86:AI86"/>
-    <mergeCell ref="AJ86:AM86"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="D85:G85"/>
     <mergeCell ref="H85:K85"/>
@@ -13004,448 +13139,325 @@
     <mergeCell ref="AB87:AC87"/>
     <mergeCell ref="AD87:AE87"/>
     <mergeCell ref="AF87:AG87"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="P86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:AA86"/>
+    <mergeCell ref="AB86:AE86"/>
+    <mergeCell ref="AF86:AI86"/>
+    <mergeCell ref="AJ86:AM86"/>
+    <mergeCell ref="AH87:AI87"/>
+    <mergeCell ref="AJ87:AK87"/>
+    <mergeCell ref="AL87:AM87"/>
+    <mergeCell ref="AN87:AO87"/>
+    <mergeCell ref="AP87:AQ87"/>
+    <mergeCell ref="AR87:AS87"/>
+    <mergeCell ref="AT87:AU87"/>
+    <mergeCell ref="AJ85:AM85"/>
+    <mergeCell ref="AN85:AQ85"/>
+    <mergeCell ref="AR85:AU85"/>
+    <mergeCell ref="AN86:AQ86"/>
+    <mergeCell ref="AR86:AU86"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C15:C18 C5:C12 C49:C50 C79:C80">
-    <cfRule type="expression" dxfId="465" priority="273">
+    <cfRule type="expression" dxfId="464" priority="273">
       <formula>B5=C5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="274">
+    <cfRule type="expression" dxfId="463" priority="274">
       <formula>B5&lt;C5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="275">
+    <cfRule type="expression" dxfId="462" priority="275">
       <formula>B5&gt;C5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="462" priority="236">
+    <cfRule type="expression" dxfId="461" priority="236">
       <formula>B19=C19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="237">
+    <cfRule type="expression" dxfId="460" priority="237">
       <formula>B19&lt;C19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="238">
+    <cfRule type="expression" dxfId="459" priority="238">
       <formula>B19&gt;C19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="459" priority="229">
+    <cfRule type="expression" dxfId="458" priority="229">
       <formula>B21=C21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="230">
+    <cfRule type="expression" dxfId="457" priority="230">
       <formula>B21&lt;C21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="231">
+    <cfRule type="expression" dxfId="456" priority="231">
       <formula>B21&gt;C21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C24">
-    <cfRule type="expression" dxfId="456" priority="220">
+    <cfRule type="expression" dxfId="455" priority="220">
       <formula>B23=C23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="221">
+    <cfRule type="expression" dxfId="454" priority="221">
       <formula>B23&lt;C23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="222">
+    <cfRule type="expression" dxfId="453" priority="222">
       <formula>B23&gt;C23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="453" priority="213">
+    <cfRule type="expression" dxfId="452" priority="213">
       <formula>B25=C25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="214">
+    <cfRule type="expression" dxfId="451" priority="214">
       <formula>B25&lt;C25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="215">
+    <cfRule type="expression" dxfId="450" priority="215">
       <formula>B25&gt;C25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C30">
-    <cfRule type="expression" dxfId="450" priority="206">
+    <cfRule type="expression" dxfId="449" priority="206">
       <formula>B29=C29</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="207">
+    <cfRule type="expression" dxfId="448" priority="207">
       <formula>B29&lt;C29</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="208">
+    <cfRule type="expression" dxfId="447" priority="208">
       <formula>B29&gt;C29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="447" priority="185">
+    <cfRule type="expression" dxfId="446" priority="185">
       <formula>B27=C27</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="186">
+    <cfRule type="expression" dxfId="445" priority="186">
       <formula>B27&lt;C27</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="187">
+    <cfRule type="expression" dxfId="444" priority="187">
       <formula>B27&gt;C27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C40">
-    <cfRule type="expression" dxfId="444" priority="157">
+    <cfRule type="expression" dxfId="443" priority="157">
       <formula>B39=C39</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="158">
+    <cfRule type="expression" dxfId="442" priority="158">
       <formula>B39&lt;C39</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="159">
+    <cfRule type="expression" dxfId="441" priority="159">
       <formula>B39&gt;C39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C52">
-    <cfRule type="expression" dxfId="441" priority="121">
+    <cfRule type="expression" dxfId="440" priority="121">
       <formula>B51=C51</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="122">
+    <cfRule type="expression" dxfId="439" priority="122">
       <formula>B51&lt;C51</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="123">
+    <cfRule type="expression" dxfId="438" priority="123">
       <formula>B51&gt;C51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C36">
-    <cfRule type="expression" dxfId="438" priority="171">
+    <cfRule type="expression" dxfId="437" priority="171">
       <formula>B35=C35</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="172">
+    <cfRule type="expression" dxfId="436" priority="172">
       <formula>B35&lt;C35</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="173">
+    <cfRule type="expression" dxfId="435" priority="173">
       <formula>B35&gt;C35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:C56">
-    <cfRule type="expression" dxfId="435" priority="114">
+    <cfRule type="expression" dxfId="434" priority="114">
       <formula>B55=C55</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="115">
+    <cfRule type="expression" dxfId="433" priority="115">
       <formula>B55&lt;C55</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="116">
+    <cfRule type="expression" dxfId="432" priority="116">
       <formula>B55&gt;C55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C38">
-    <cfRule type="expression" dxfId="432" priority="164">
+    <cfRule type="expression" dxfId="431" priority="164">
       <formula>B37=C37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="165">
+    <cfRule type="expression" dxfId="430" priority="165">
       <formula>B37&lt;C37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="166">
+    <cfRule type="expression" dxfId="429" priority="166">
       <formula>B37&gt;C37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="expression" dxfId="429" priority="150">
+    <cfRule type="expression" dxfId="428" priority="150">
       <formula>B41=C41</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="151">
+    <cfRule type="expression" dxfId="427" priority="151">
       <formula>B41&lt;C41</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="152">
+    <cfRule type="expression" dxfId="426" priority="152">
       <formula>B41&gt;C41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="expression" dxfId="426" priority="143">
+    <cfRule type="expression" dxfId="425" priority="143">
       <formula>B43=C43</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="144">
+    <cfRule type="expression" dxfId="424" priority="144">
       <formula>B43&lt;C43</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="145">
+    <cfRule type="expression" dxfId="423" priority="145">
       <formula>B43&gt;C43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:AU84">
-    <cfRule type="cellIs" dxfId="423" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="422" priority="133" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C48">
-    <cfRule type="expression" dxfId="422" priority="100">
+    <cfRule type="expression" dxfId="421" priority="100">
       <formula>B47=C47</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="101">
+    <cfRule type="expression" dxfId="420" priority="101">
       <formula>B47&lt;C47</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="102">
+    <cfRule type="expression" dxfId="419" priority="102">
       <formula>B47&gt;C47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="expression" dxfId="419" priority="93">
+    <cfRule type="expression" dxfId="418" priority="93">
       <formula>B53=C53</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="94">
+    <cfRule type="expression" dxfId="417" priority="94">
       <formula>B53&lt;C53</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="95">
+    <cfRule type="expression" dxfId="416" priority="95">
       <formula>B53&gt;C53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:C68">
-    <cfRule type="expression" dxfId="416" priority="86">
+    <cfRule type="expression" dxfId="415" priority="86">
       <formula>B67=C67</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="87">
+    <cfRule type="expression" dxfId="414" priority="87">
       <formula>B67&lt;C67</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="88">
+    <cfRule type="expression" dxfId="413" priority="88">
       <formula>B67&gt;C67</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C66">
-    <cfRule type="expression" dxfId="413" priority="79">
+    <cfRule type="expression" dxfId="412" priority="79">
       <formula>B65=C65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="80">
+    <cfRule type="expression" dxfId="411" priority="80">
       <formula>B65&lt;C65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="81">
+    <cfRule type="expression" dxfId="410" priority="81">
       <formula>B65&gt;C65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C62">
-    <cfRule type="expression" dxfId="410" priority="72">
+    <cfRule type="expression" dxfId="409" priority="72">
       <formula>B61=C61</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="73">
+    <cfRule type="expression" dxfId="408" priority="73">
       <formula>B61&lt;C61</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="74">
+    <cfRule type="expression" dxfId="407" priority="74">
       <formula>B61&gt;C61</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C60">
-    <cfRule type="expression" dxfId="407" priority="65">
+    <cfRule type="expression" dxfId="406" priority="65">
       <formula>B59=C59</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="66">
+    <cfRule type="expression" dxfId="405" priority="66">
       <formula>B59&lt;C59</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="67">
+    <cfRule type="expression" dxfId="404" priority="67">
       <formula>B59&gt;C59</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C70">
-    <cfRule type="expression" dxfId="404" priority="51">
+    <cfRule type="expression" dxfId="403" priority="51">
       <formula>B69=C69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="52">
+    <cfRule type="expression" dxfId="402" priority="52">
       <formula>B69&lt;C69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="53">
+    <cfRule type="expression" dxfId="401" priority="53">
       <formula>B69&gt;C69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="expression" dxfId="401" priority="44">
+    <cfRule type="expression" dxfId="400" priority="44">
       <formula>B81=C81</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="45">
+    <cfRule type="expression" dxfId="399" priority="45">
       <formula>B81&lt;C81</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="46">
+    <cfRule type="expression" dxfId="398" priority="46">
       <formula>B81&gt;C81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72 C78">
-    <cfRule type="expression" dxfId="398" priority="37">
+    <cfRule type="expression" dxfId="397" priority="37">
       <formula>B71=C71</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="38">
+    <cfRule type="expression" dxfId="396" priority="38">
       <formula>B71&lt;C71</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="39">
+    <cfRule type="expression" dxfId="395" priority="39">
       <formula>B71&gt;C71</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C76">
-    <cfRule type="expression" dxfId="395" priority="23">
+    <cfRule type="expression" dxfId="394" priority="23">
       <formula>B75=C75</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="24">
+    <cfRule type="expression" dxfId="393" priority="24">
       <formula>B75&lt;C75</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="25">
+    <cfRule type="expression" dxfId="392" priority="25">
       <formula>B75&gt;C75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="expression" dxfId="392" priority="8">
+    <cfRule type="expression" dxfId="391" priority="8">
       <formula>B63=C63</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="9">
+    <cfRule type="expression" dxfId="390" priority="9">
       <formula>B63&lt;C63</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="10">
+    <cfRule type="expression" dxfId="389" priority="10">
       <formula>B63&gt;C63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:AU82">
-    <cfRule type="expression" dxfId="389" priority="4">
+    <cfRule type="expression" dxfId="388" priority="4">
       <formula>AND(MOD(ROW()-1,2), NOT(ISBLANK(D5)) )</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="5">
+    <cfRule type="expression" dxfId="387" priority="5">
       <formula>AND(MOD(ROW(),2), NOT(ISBLANK(D5) ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C74">
-    <cfRule type="expression" dxfId="387" priority="1">
+    <cfRule type="expression" dxfId="386" priority="1">
       <formula>B73=C73</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="2">
+    <cfRule type="expression" dxfId="385" priority="2">
       <formula>B73&lt;C73</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="3">
+    <cfRule type="expression" dxfId="384" priority="3">
       <formula>B73&gt;C73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13465,17 +13477,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47C3C77-DD25-4E69-9FF0-12031AADE1AE}">
   <dimension ref="A1:AX91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" style="38" customWidth="1"/>
     <col min="4" max="17" width="5.88671875" style="38" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="5.33203125" style="38" customWidth="1"/>
     <col min="20" max="33" width="5.88671875" style="38" bestFit="1" customWidth="1"/>
@@ -13488,245 +13499,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76" t="s">
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76" t="s">
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76" t="s">
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76" t="s">
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76" t="s">
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76" t="s">
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
     </row>
     <row r="2" spans="1:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76" t="s">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76" t="s">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76" t="s">
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76" t="s">
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76" t="s">
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76" t="s">
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76" t="s">
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76" t="s">
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
     </row>
     <row r="3" spans="1:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76" t="s">
+      <c r="I3" s="75"/>
+      <c r="J3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76" t="s">
+      <c r="M3" s="75"/>
+      <c r="N3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76" t="s">
+      <c r="O3" s="75"/>
+      <c r="P3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76" t="s">
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76" t="s">
+      <c r="S3" s="75"/>
+      <c r="T3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76" t="s">
+      <c r="U3" s="75"/>
+      <c r="V3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76" t="s">
+      <c r="W3" s="75"/>
+      <c r="X3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76" t="s">
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76" t="s">
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76" t="s">
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76" t="s">
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76" t="s">
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76" t="s">
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76" t="s">
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76" t="s">
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76" t="s">
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76" t="s">
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="76" t="s">
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AU3" s="76"/>
+      <c r="AU3" s="75"/>
     </row>
     <row r="4" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
@@ -13780,14 +13791,14 @@
       <c r="AU4" s="6"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>5</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="73">
         <f>SUM(D6:AU6)</f>
         <v>0.5</v>
       </c>
@@ -13877,9 +13888,9 @@
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32">
         <v>0.25</v>
@@ -13930,14 +13941,14 @@
       <c r="AU6" s="32"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>5</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="73">
         <f>SUM(D8:AU8)</f>
         <v>0.5</v>
       </c>
@@ -14027,9 +14038,9 @@
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32">
         <v>0.25</v>
@@ -14080,14 +14091,14 @@
       <c r="AU8" s="32"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="73">
         <f>SUM(Table24[#This Row])</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="62">
+        <v>2</v>
+      </c>
+      <c r="C9" s="73">
         <f>SUM(D10:AU10)</f>
         <v>1</v>
       </c>
@@ -14102,7 +14113,9 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="32">
+        <v>0.5</v>
+      </c>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
@@ -14112,7 +14125,9 @@
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
       <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
+      <c r="U9" s="32">
+        <v>0.5</v>
+      </c>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
       <c r="X9" s="32"/>
@@ -14141,9 +14156,9 @@
       <c r="AU9" s="32"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="32">
         <v>0.5</v>
       </c>
@@ -14192,20 +14207,20 @@
       <c r="AS10" s="32"/>
       <c r="AT10" s="32"/>
       <c r="AU10" s="32"/>
-      <c r="AW10" s="74" t="s">
+      <c r="AW10" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="AX10" s="74"/>
+      <c r="AX10" s="79"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="73">
         <f>SUM(D12:AU12)</f>
         <v>0</v>
       </c>
@@ -14263,9 +14278,9 @@
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -14424,14 +14439,14 @@
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="73">
         <f>SUM(D16:AU16)</f>
         <v>2</v>
       </c>
@@ -14489,9 +14504,9 @@
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="32">
         <v>1.5</v>
       </c>
@@ -14548,14 +14563,14 @@
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.75</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="73">
         <f>SUM(D18:AU18)</f>
         <v>0.5</v>
       </c>
@@ -14613,11 +14628,11 @@
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="32">
+      <c r="E18" s="63">
         <v>0.5</v>
       </c>
       <c r="F18" s="32"/>
@@ -14668,14 +14683,14 @@
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="73">
         <f>SUM(D20:AU20)</f>
         <v>0.5</v>
       </c>
@@ -14729,9 +14744,9 @@
       <c r="AU19" s="32"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32">
         <v>0.5</v>
@@ -14786,14 +14801,14 @@
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="73">
         <f>SUM(D22:AU22)</f>
         <v>0.5</v>
       </c>
@@ -14851,9 +14866,9 @@
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32">
@@ -14908,14 +14923,14 @@
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="73">
         <f>SUM(D24:AU24)</f>
         <v>0.5</v>
       </c>
@@ -14973,9 +14988,9 @@
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32">
@@ -15030,14 +15045,14 @@
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.25</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="73">
         <f>SUM(D26:AU26)</f>
         <v>0.25</v>
       </c>
@@ -15095,9 +15110,9 @@
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32">
@@ -15152,14 +15167,14 @@
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>1.5</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="73">
         <f>SUM(D28:AU28)</f>
         <v>1.5</v>
       </c>
@@ -15211,9 +15226,9 @@
       <c r="AU27" s="32"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -15262,14 +15277,14 @@
       <c r="AU28" s="32"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.25</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="73">
         <f>SUM(D30:AU30)</f>
         <v>0.25</v>
       </c>
@@ -15321,9 +15336,9 @@
       <c r="AU29" s="32"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -15372,14 +15387,14 @@
       <c r="AU30" s="32"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.25</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="73">
         <f>SUM(D32:AU32)</f>
         <v>0.25</v>
       </c>
@@ -15431,9 +15446,9 @@
       <c r="AU31" s="32"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -15482,14 +15497,14 @@
       <c r="AU32" s="32"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.75</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="73">
         <f>SUM(D34:AU34)</f>
         <v>0</v>
       </c>
@@ -15541,9 +15556,9 @@
       <c r="AU33" s="32"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
@@ -15790,14 +15805,14 @@
       <c r="AU38" s="32"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.75</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="73">
         <f>SUM(D40:AU40)</f>
         <v>0</v>
       </c>
@@ -15849,9 +15864,9 @@
       <c r="AU39" s="32"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
@@ -15898,14 +15913,14 @@
       <c r="AU40" s="32"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.25</v>
       </c>
-      <c r="C41" s="62">
+      <c r="C41" s="73">
         <f>SUM(D42:AU42)</f>
         <v>0</v>
       </c>
@@ -15957,9 +15972,9 @@
       <c r="AU41" s="32"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A42" s="73"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
@@ -16006,14 +16021,14 @@
       <c r="AU42" s="32"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>1.5</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="73">
         <f>SUM(D44:AU44)</f>
         <v>0</v>
       </c>
@@ -16067,9 +16082,9 @@
       <c r="AU43" s="32"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A44" s="73"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
@@ -16116,14 +16131,14 @@
       <c r="AU44" s="32"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="62">
+      <c r="B45" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.75</v>
       </c>
-      <c r="C45" s="62">
+      <c r="C45" s="73">
         <f>SUM(D46:AU46)</f>
         <v>0</v>
       </c>
@@ -16175,9 +16190,9 @@
       <c r="AU45" s="32"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A46" s="73"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -16224,14 +16239,14 @@
       <c r="AU46" s="32"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="62">
+      <c r="B47" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="C47" s="62">
+      <c r="C47" s="73">
         <f>SUM(D48:AU48)</f>
         <v>0</v>
       </c>
@@ -16283,9 +16298,9 @@
       <c r="AU47" s="32"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A48" s="73"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
@@ -16432,14 +16447,14 @@
       <c r="AU50" s="33"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="73">
         <f>SUM(D52:AU52)</f>
         <v>0</v>
       </c>
@@ -16491,9 +16506,9 @@
       <c r="AU51" s="32"/>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A52" s="73"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
@@ -16540,14 +16555,14 @@
       <c r="AU52" s="32"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B53" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>3.25</v>
       </c>
-      <c r="C53" s="62">
+      <c r="C53" s="73">
         <f>SUM(D54:AU54)</f>
         <v>0</v>
       </c>
@@ -16605,9 +16620,9 @@
       <c r="AU53" s="32"/>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A54" s="73"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
@@ -16654,14 +16669,14 @@
       <c r="AU54" s="32"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="62">
+      <c r="B55" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>3.5</v>
       </c>
-      <c r="C55" s="62">
+      <c r="C55" s="73">
         <f>SUM(D56:AU56)</f>
         <v>0</v>
       </c>
@@ -16715,9 +16730,9 @@
       <c r="AU55" s="32"/>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A56" s="73"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
+      <c r="A56" s="77"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
@@ -16764,14 +16779,14 @@
       <c r="AU56" s="32"/>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="62">
+      <c r="B57" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>3.5</v>
       </c>
-      <c r="C57" s="62">
+      <c r="C57" s="73">
         <f>SUM(D58:AU58)</f>
         <v>0</v>
       </c>
@@ -16825,9 +16840,9 @@
       <c r="AU57" s="32"/>
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A58" s="73"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
@@ -16874,14 +16889,14 @@
       <c r="AU58" s="32"/>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="62">
+      <c r="B59" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>5</v>
       </c>
-      <c r="C59" s="62">
+      <c r="C59" s="73">
         <f>SUM(D60:AU60)</f>
         <v>0</v>
       </c>
@@ -16937,9 +16952,9 @@
       <c r="AU59" s="32"/>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A60" s="73"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
@@ -17086,14 +17101,14 @@
       <c r="AU62" s="34"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A63" s="73" t="s">
+      <c r="A63" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="62">
+      <c r="B63" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C63" s="62">
+      <c r="C63" s="73">
         <f>SUM(D64:AU64)</f>
         <v>0</v>
       </c>
@@ -17145,9 +17160,9 @@
       <c r="AU63" s="32"/>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A64" s="73"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
@@ -17194,14 +17209,14 @@
       <c r="AU64" s="32"/>
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="62">
+      <c r="B65" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>2.5</v>
       </c>
-      <c r="C65" s="62">
+      <c r="C65" s="73">
         <f>SUM(D66:AU66)</f>
         <v>0</v>
       </c>
@@ -17255,9 +17270,9 @@
       <c r="AU65" s="32"/>
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A66" s="73"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
@@ -17304,14 +17319,14 @@
       <c r="AU66" s="32"/>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="62">
+      <c r="B67" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="C67" s="62">
+      <c r="C67" s="73">
         <f>SUM(D68:AU68)</f>
         <v>0</v>
       </c>
@@ -17363,9 +17378,9 @@
       <c r="AU67" s="32"/>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A68" s="73"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
+      <c r="A68" s="77"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
@@ -17412,14 +17427,14 @@
       <c r="AU68" s="32"/>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="62">
+      <c r="B69" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>5.5</v>
       </c>
-      <c r="C69" s="62">
+      <c r="C69" s="73">
         <f>SUM(D70:AU70)</f>
         <v>0</v>
       </c>
@@ -17477,9 +17492,9 @@
       <c r="AU69" s="32"/>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A70" s="73"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
+      <c r="A70" s="77"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
@@ -17526,14 +17541,14 @@
       <c r="AU70" s="32"/>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="62">
+      <c r="B71" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="C71" s="62">
+      <c r="C71" s="73">
         <f>SUM(D72:AU72)</f>
         <v>0</v>
       </c>
@@ -17585,9 +17600,9 @@
       <c r="AU71" s="32"/>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A72" s="73"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
+      <c r="A72" s="77"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
@@ -17634,14 +17649,14 @@
       <c r="AU72" s="32"/>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="62">
+      <c r="B73" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>7</v>
       </c>
-      <c r="C73" s="62">
+      <c r="C73" s="73">
         <f>SUM(D74:AU74)</f>
         <v>0</v>
       </c>
@@ -17699,9 +17714,9 @@
       <c r="AU73" s="32"/>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A74" s="73"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
+      <c r="A74" s="77"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -17748,14 +17763,14 @@
       <c r="AU74" s="32"/>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="62">
+      <c r="B75" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>4</v>
       </c>
-      <c r="C75" s="62">
+      <c r="C75" s="73">
         <f>SUM(D76:AU76)</f>
         <v>0</v>
       </c>
@@ -17811,9 +17826,9 @@
       <c r="AU75" s="32"/>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A76" s="73"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="73"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
@@ -17860,14 +17875,14 @@
       <c r="AU76" s="32"/>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="62">
+      <c r="B77" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>3.5</v>
       </c>
-      <c r="C77" s="62">
+      <c r="C77" s="73">
         <f>SUM(D78:AU78)</f>
         <v>0</v>
       </c>
@@ -17921,9 +17936,9 @@
       <c r="AU77" s="32"/>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A78" s="73"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
@@ -17970,14 +17985,14 @@
       <c r="AU78" s="32"/>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="62">
+      <c r="B79" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>7</v>
       </c>
-      <c r="C79" s="62">
+      <c r="C79" s="73">
         <f>SUM(D80:AU80)</f>
         <v>0</v>
       </c>
@@ -18035,9 +18050,9 @@
       <c r="AU79" s="32"/>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A80" s="73"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
@@ -18184,14 +18199,14 @@
       <c r="AU82" s="33"/>
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B83" s="62">
+      <c r="B83" s="73">
         <f>SUM(Table24[#This Row])</f>
         <v>0.25</v>
       </c>
-      <c r="C83" s="62">
+      <c r="C83" s="73">
         <f>SUM(D84:AU84)</f>
         <v>0</v>
       </c>
@@ -18243,9 +18258,9 @@
       <c r="AU83" s="32"/>
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A84" s="73"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
       <c r="D84" s="32"/>
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
@@ -18292,14 +18307,14 @@
       <c r="AU84" s="32"/>
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="62">
+      <c r="B85" s="73">
         <f>SUM(Table24[#This Row])</f>
-        <v>5.5</v>
-      </c>
-      <c r="C85" s="62">
+        <v>6.5</v>
+      </c>
+      <c r="C85" s="73">
         <f>SUM(D86:AU86)</f>
         <v>0</v>
       </c>
@@ -18352,16 +18367,16 @@
         <v>1.5</v>
       </c>
       <c r="AT85" s="32">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AU85" s="32">
         <v>1.5</v>
       </c>
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A86" s="73"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
+      <c r="A86" s="77"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="32"/>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
@@ -18409,10 +18424,10 @@
     </row>
     <row r="87" spans="1:47" ht="30" x14ac:dyDescent="0.3">
       <c r="A87" s="49"/>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="61" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -18540,327 +18555,327 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:47" s="60" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:47" s="59" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="57">
         <f>SUM(B4:B86)</f>
-        <v>79.5</v>
-      </c>
-      <c r="C88" s="58">
+        <v>81.5</v>
+      </c>
+      <c r="C88" s="57">
         <f>SUM(C5:C86)</f>
         <v>8.25</v>
       </c>
-      <c r="D88" s="59" cm="1">
+      <c r="D88" s="62" cm="1">
         <f t="array" ref="D88">SUM(IF(MOD(1+ ROW( Table24[[#All],[Column1]:[Column4]]),2)=0,Table24[[#All],[Column1]:[Column4]],0))</f>
         <v>4</v>
       </c>
-      <c r="E88" s="59" cm="1">
+      <c r="E88" s="58" cm="1">
         <f t="array" ref="E88">SUM(IF(MOD(ROW( Table24[[#All],[Column1]:[Column4]]),2)=0,Table24[[#All],[Column1]:[Column4]],0))</f>
         <v>4</v>
       </c>
-      <c r="F88" s="59" cm="1">
+      <c r="F88" s="58" cm="1">
         <f t="array" ref="F88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column5]:[Column8]]),2)=0,Table24[[#All],[Column5]:[Column8]],0))</f>
         <v>4.5</v>
       </c>
-      <c r="G88" s="59" cm="1">
+      <c r="G88" s="58" cm="1">
         <f t="array" ref="G88">SUM(IF(MOD(ROW(Table24[[#All],[Column5]:[Column8]]),2)=0,Table24[[#All],[Column5]:[Column8]],0))</f>
         <v>4.25</v>
       </c>
-      <c r="H88" s="59" cm="1">
+      <c r="H88" s="58" cm="1">
         <f t="array" ref="H88">SUM(IF(MOD(1+ ROW( Table24[[#All],[Column9]:[Column12]]),2)=0,Table24[[#All],[Column9]:[Column12]],0))</f>
         <v>4</v>
       </c>
-      <c r="I88" s="59" cm="1">
+      <c r="I88" s="58" cm="1">
         <f t="array" ref="I88">SUM(IF(MOD(ROW( Table24[[#All],[Column9]:[Column12]]),2)=0,Table24[[#All],[Column9]:[Column12]],0))</f>
         <v>0</v>
       </c>
-      <c r="J88" s="59" cm="1">
+      <c r="J88" s="58" cm="1">
         <f t="array" ref="J88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column13]:[Column14]]),2)=0,Table24[[#All],[Column13]:[Column14]],0))</f>
-        <v>4</v>
-      </c>
-      <c r="K88" s="59" cm="1">
+        <v>4.5</v>
+      </c>
+      <c r="K88" s="58" cm="1">
         <f t="array" ref="K88">SUM(IF(MOD(ROW(Table24[[#All],[Column13]:[Column14]]),2)=0,Table24[[#All],[Column13]:[Column14]],0))</f>
         <v>0</v>
       </c>
-      <c r="L88" s="59" cm="1">
+      <c r="L88" s="58" cm="1">
         <f t="array" ref="L88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column17]:[Column20]]),2)=0,Table24[[#All],[Column17]:[Column20]],0))</f>
         <v>4</v>
       </c>
-      <c r="M88" s="59" cm="1">
+      <c r="M88" s="58" cm="1">
         <f t="array" ref="M88">SUM(IF(MOD(ROW(Table24[[#All],[Column17]:[Column20]]),2)=0,Table24[[#All],[Column17]:[Column20]],0))</f>
         <v>0</v>
       </c>
-      <c r="N88" s="59" cm="1">
+      <c r="N88" s="58" cm="1">
         <f t="array" ref="N88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column21]:[Column24]]),2)=0,Table24[[#All],[Column21]:[Column24]],0))</f>
         <v>4</v>
       </c>
-      <c r="O88" s="59" cm="1">
+      <c r="O88" s="58" cm="1">
         <f t="array" ref="O88">SUM(IF(MOD(ROW(Table24[[#All],[Column21]:[Column24]]),2)=0,Table24[[#All],[Column21]:[Column24]],0))</f>
         <v>0</v>
       </c>
-      <c r="P88" s="59" cm="1">
+      <c r="P88" s="58" cm="1">
         <f t="array" ref="P88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column25]:[Column28]]),2)=0,Table24[[#All],[Column25]:[Column28]],0))</f>
         <v>4</v>
       </c>
-      <c r="Q88" s="59" cm="1">
+      <c r="Q88" s="58" cm="1">
         <f t="array" ref="Q88">SUM(IF(MOD(ROW(Table24[[#All],[Column25]:[Column28]]),2)=0,Table24[[#All],[Column25]:[Column28]],0))</f>
         <v>0</v>
       </c>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59" cm="1">
+      <c r="R88" s="58"/>
+      <c r="S88" s="58"/>
+      <c r="T88" s="58" cm="1">
         <f t="array" ref="T88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column29]:[Column32]]),2)=0,Table24[[#All],[Column29]:[Column32]],0))</f>
-        <v>4</v>
-      </c>
-      <c r="U88" s="59" cm="1">
+        <v>4.5</v>
+      </c>
+      <c r="U88" s="58" cm="1">
         <f t="array" ref="U88">SUM(IF(MOD(ROW(Table24[[#All],[Column29]:[Column32]]),2)=0,Table24[[#All],[Column29]:[Column32]],0))</f>
         <v>0</v>
       </c>
-      <c r="V88" s="59" cm="1">
+      <c r="V88" s="58" cm="1">
         <f t="array" ref="V88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column33]:[Column36]]),2)=0,Table24[[#All],[Column33]:[Column36]],0))</f>
         <v>4</v>
       </c>
-      <c r="W88" s="59" cm="1">
+      <c r="W88" s="58" cm="1">
         <f t="array" ref="W88">SUM(IF(MOD(ROW(Table24[[#All],[Column33]:[Column36]]),2)=0,Table24[[#All],[Column33]:[Column36]],0))</f>
         <v>0</v>
       </c>
-      <c r="X88" s="59" cm="1">
+      <c r="X88" s="58" cm="1">
         <f t="array" ref="X88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column37]:[Column40]]),2)=0,Table24[[#All],[Column37]:[Column40]],0))</f>
         <v>4</v>
       </c>
-      <c r="Y88" s="59" cm="1">
+      <c r="Y88" s="58" cm="1">
         <f t="array" ref="Y88">SUM(IF(MOD(ROW(Table24[[#All],[Column37]:[Column40]]),2)=0,Table24[[#All],[Column37]:[Column40]],0))</f>
         <v>0</v>
       </c>
-      <c r="Z88" s="59" cm="1">
+      <c r="Z88" s="58" cm="1">
         <f t="array" ref="Z88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column41]:[Column44]]),2)=0,Table24[[#All],[Column41]:[Column44]],0))</f>
         <v>4</v>
       </c>
-      <c r="AA88" s="59" cm="1">
+      <c r="AA88" s="58" cm="1">
         <f t="array" ref="AA88">SUM(IF(MOD(ROW(Table24[[#All],[Column41]:[Column44]]),2)=0,Table24[[#All],[Column41]:[Column44]],0))</f>
         <v>0</v>
       </c>
-      <c r="AB88" s="59" cm="1">
+      <c r="AB88" s="58" cm="1">
         <f t="array" ref="AB88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column45]:[Column48]]),2)=0,Table24[[#All],[Column45]:[Column48]],0))</f>
         <v>4</v>
       </c>
-      <c r="AC88" s="59" cm="1">
+      <c r="AC88" s="58" cm="1">
         <f t="array" ref="AC88">SUM(IF(MOD(ROW(Table24[[#All],[Column45]:[Column48]]),2)=0,Table24[[#All],[Column45]:[Column48]],0))</f>
         <v>0</v>
       </c>
-      <c r="AD88" s="59" cm="1">
+      <c r="AD88" s="58" cm="1">
         <f t="array" ref="AD88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column49]:[Column52]]),2)=0,Table24[[#All],[Column49]:[Column52]],0))</f>
         <v>4</v>
       </c>
-      <c r="AE88" s="59" cm="1">
+      <c r="AE88" s="58" cm="1">
         <f t="array" ref="AE88">SUM(IF(MOD(ROW(Table24[[#All],[Column49]:[Column52]]),2)=0,Table24[[#All],[Column49]:[Column52]],0))</f>
         <v>0</v>
       </c>
-      <c r="AF88" s="59" cm="1">
+      <c r="AF88" s="58" cm="1">
         <f t="array" ref="AF88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column53]:[Column56]]),2)=0,Table24[[#All],[Column53]:[Column56]],0))</f>
         <v>4</v>
       </c>
-      <c r="AG88" s="59" cm="1">
+      <c r="AG88" s="58" cm="1">
         <f t="array" ref="AG88">SUM(IF(MOD(ROW(Table24[[#All],[Column53]:[Column56]]),2)=0,Table24[[#All],[Column53]:[Column56]],0))</f>
         <v>0</v>
       </c>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59" cm="1">
+      <c r="AH88" s="58"/>
+      <c r="AI88" s="58"/>
+      <c r="AJ88" s="58" cm="1">
         <f t="array" ref="AJ88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column61]:[Column64]]),2)=0,Table24[[#All],[Column61]:[Column64]],0))</f>
         <v>4</v>
       </c>
-      <c r="AK88" s="59" cm="1">
+      <c r="AK88" s="58" cm="1">
         <f t="array" ref="AK88">SUM(IF(MOD(ROW(Table24[[#All],[Column61]:[Column64]]),2)=0,Table24[[#All],[Column61]:[Column64]],0))</f>
         <v>0</v>
       </c>
-      <c r="AL88" s="59" cm="1">
+      <c r="AL88" s="58" cm="1">
         <f t="array" ref="AL88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column65]:[Column68]]),2)=0,Table24[[#All],[Column65]:[Column68]],0))</f>
         <v>4</v>
       </c>
-      <c r="AM88" s="59" cm="1">
+      <c r="AM88" s="58" cm="1">
         <f t="array" ref="AM88">SUM(IF(MOD(ROW(Table24[[#All],[Column65]:[Column68]]),2)=0,Table24[[#All],[Column65]:[Column68]],0))</f>
         <v>0</v>
       </c>
-      <c r="AN88" s="59" cm="1">
+      <c r="AN88" s="58" cm="1">
         <f t="array" ref="AN88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column69]:[Column72]]),2)=0,Table24[[#All],[Column69]:[Column72]],0))</f>
         <v>4</v>
       </c>
-      <c r="AO88" s="59" cm="1">
+      <c r="AO88" s="58" cm="1">
         <f t="array" ref="AO88">SUM(IF(MOD(ROW(Table24[[#All],[Column69]:[Column72]]),2)=0,Table24[[#All],[Column69]:[Column72]],0))</f>
         <v>0</v>
       </c>
-      <c r="AP88" s="59" cm="1">
+      <c r="AP88" s="58" cm="1">
         <f t="array" ref="AP88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column73]:[Column76]]),2)=0,Table24[[#All],[Column73]:[Column76]],0))</f>
         <v>4</v>
       </c>
-      <c r="AQ88" s="59" cm="1">
+      <c r="AQ88" s="58" cm="1">
         <f t="array" ref="AQ88">SUM(IF(MOD(ROW(Table24[[#All],[Column73]:[Column76]]),2)=0,Table24[[#All],[Column73]:[Column76]],0))</f>
         <v>0</v>
       </c>
-      <c r="AR88" s="59" cm="1">
+      <c r="AR88" s="58" cm="1">
         <f t="array" ref="AR88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column2]:[Column3]]),2)=0,Table24[[#All],[Column2]:[Column3]],0))</f>
         <v>4</v>
       </c>
-      <c r="AS88" s="59" cm="1">
+      <c r="AS88" s="58" cm="1">
         <f t="array" ref="AS88">SUM(IF(MOD(ROW(Table24[[#All],[Column2]:[Column3]]),2)=0,Table24[[#All],[Column2]:[Column3]],0))</f>
         <v>0</v>
       </c>
-      <c r="AT88" s="59" cm="1">
+      <c r="AT88" s="58" cm="1">
         <f t="array" ref="AT88">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column6]:[Column7]]),2)=0,Table24[[#All],[Column6]:[Column7]],0))</f>
-        <v>3</v>
-      </c>
-      <c r="AU88" s="59" cm="1">
+        <v>4</v>
+      </c>
+      <c r="AU88" s="58" cm="1">
         <f t="array" ref="AU88">SUM(IF(MOD(ROW(Table24[[#All],[Column6]:[Column7]]),2)=0,Table24[[#All],[Column6]:[Column7]],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="15" x14ac:dyDescent="0.3">
-      <c r="A89" s="75" t="s">
+      <c r="A89" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="35"/>
-      <c r="D89" s="64" t="s">
+      <c r="D89" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="64" t="s">
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="64" t="s">
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M89" s="65"/>
-      <c r="N89" s="65"/>
-      <c r="O89" s="66"/>
-      <c r="P89" s="64" t="s">
+      <c r="M89" s="68"/>
+      <c r="N89" s="68"/>
+      <c r="O89" s="69"/>
+      <c r="P89" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="65"/>
-      <c r="R89" s="65"/>
-      <c r="S89" s="66"/>
-      <c r="T89" s="64" t="s">
+      <c r="Q89" s="68"/>
+      <c r="R89" s="68"/>
+      <c r="S89" s="69"/>
+      <c r="T89" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="U89" s="65"/>
-      <c r="V89" s="65"/>
-      <c r="W89" s="66"/>
-      <c r="X89" s="64" t="s">
+      <c r="U89" s="68"/>
+      <c r="V89" s="68"/>
+      <c r="W89" s="69"/>
+      <c r="X89" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="Y89" s="65"/>
-      <c r="Z89" s="65"/>
-      <c r="AA89" s="66"/>
-      <c r="AB89" s="64" t="s">
+      <c r="Y89" s="68"/>
+      <c r="Z89" s="68"/>
+      <c r="AA89" s="69"/>
+      <c r="AB89" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AC89" s="65"/>
-      <c r="AD89" s="65"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="64" t="s">
+      <c r="AC89" s="68"/>
+      <c r="AD89" s="68"/>
+      <c r="AE89" s="69"/>
+      <c r="AF89" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AG89" s="65"/>
-      <c r="AH89" s="65"/>
-      <c r="AI89" s="66"/>
-      <c r="AJ89" s="64" t="s">
+      <c r="AG89" s="68"/>
+      <c r="AH89" s="68"/>
+      <c r="AI89" s="69"/>
+      <c r="AJ89" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AK89" s="65"/>
-      <c r="AL89" s="65"/>
-      <c r="AM89" s="66"/>
-      <c r="AN89" s="64" t="s">
+      <c r="AK89" s="68"/>
+      <c r="AL89" s="68"/>
+      <c r="AM89" s="69"/>
+      <c r="AN89" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AO89" s="65"/>
-      <c r="AP89" s="65"/>
-      <c r="AQ89" s="66"/>
-      <c r="AR89" s="64" t="s">
+      <c r="AO89" s="68"/>
+      <c r="AP89" s="68"/>
+      <c r="AQ89" s="69"/>
+      <c r="AR89" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AS89" s="65"/>
-      <c r="AT89" s="65"/>
-      <c r="AU89" s="66"/>
+      <c r="AS89" s="68"/>
+      <c r="AT89" s="68"/>
+      <c r="AU89" s="69"/>
     </row>
     <row r="90" spans="1:47" ht="15" x14ac:dyDescent="0.3">
-      <c r="A90" s="75"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="36"/>
       <c r="C90" s="35"/>
-      <c r="D90" s="67" t="s">
+      <c r="D90" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="67" t="s">
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="67" t="s">
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M90" s="68"/>
-      <c r="N90" s="68"/>
-      <c r="O90" s="69"/>
-      <c r="P90" s="67" t="s">
+      <c r="M90" s="64"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Q90" s="68"/>
-      <c r="R90" s="68"/>
-      <c r="S90" s="69"/>
-      <c r="T90" s="67" t="s">
+      <c r="Q90" s="64"/>
+      <c r="R90" s="64"/>
+      <c r="S90" s="65"/>
+      <c r="T90" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="U90" s="68"/>
-      <c r="V90" s="68"/>
-      <c r="W90" s="69"/>
-      <c r="X90" s="67" t="s">
+      <c r="U90" s="64"/>
+      <c r="V90" s="64"/>
+      <c r="W90" s="65"/>
+      <c r="X90" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Y90" s="68"/>
-      <c r="Z90" s="68"/>
-      <c r="AA90" s="69"/>
-      <c r="AB90" s="67" t="s">
+      <c r="Y90" s="64"/>
+      <c r="Z90" s="64"/>
+      <c r="AA90" s="65"/>
+      <c r="AB90" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AC90" s="68"/>
-      <c r="AD90" s="68"/>
-      <c r="AE90" s="69"/>
-      <c r="AF90" s="67" t="s">
+      <c r="AC90" s="64"/>
+      <c r="AD90" s="64"/>
+      <c r="AE90" s="65"/>
+      <c r="AF90" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AG90" s="68"/>
-      <c r="AH90" s="68"/>
-      <c r="AI90" s="69"/>
-      <c r="AJ90" s="67" t="s">
+      <c r="AG90" s="64"/>
+      <c r="AH90" s="64"/>
+      <c r="AI90" s="65"/>
+      <c r="AJ90" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AK90" s="68"/>
-      <c r="AL90" s="68"/>
-      <c r="AM90" s="69"/>
-      <c r="AN90" s="67" t="s">
+      <c r="AK90" s="64"/>
+      <c r="AL90" s="64"/>
+      <c r="AM90" s="65"/>
+      <c r="AN90" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AO90" s="68"/>
-      <c r="AP90" s="68"/>
-      <c r="AQ90" s="69"/>
-      <c r="AR90" s="67" t="s">
+      <c r="AO90" s="64"/>
+      <c r="AP90" s="64"/>
+      <c r="AQ90" s="65"/>
+      <c r="AR90" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AS90" s="68"/>
-      <c r="AT90" s="68"/>
-      <c r="AU90" s="69"/>
+      <c r="AS90" s="64"/>
+      <c r="AT90" s="64"/>
+      <c r="AU90" s="65"/>
     </row>
     <row r="91" spans="1:47" ht="15" x14ac:dyDescent="0.3">
-      <c r="A91" s="75"/>
+      <c r="A91" s="78"/>
       <c r="B91" s="36" t="s">
         <v>15</v>
       </c>
@@ -18875,89 +18890,261 @@
         <v>28</v>
       </c>
       <c r="G91" s="72"/>
-      <c r="H91" s="67" t="s">
+      <c r="H91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="68"/>
-      <c r="J91" s="68" t="s">
+      <c r="I91" s="64"/>
+      <c r="J91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K91" s="69"/>
-      <c r="L91" s="67" t="s">
+      <c r="K91" s="65"/>
+      <c r="L91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="M91" s="68"/>
-      <c r="N91" s="68" t="s">
+      <c r="M91" s="64"/>
+      <c r="N91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="O91" s="68"/>
-      <c r="P91" s="67" t="s">
+      <c r="O91" s="64"/>
+      <c r="P91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="68"/>
-      <c r="R91" s="68" t="s">
+      <c r="Q91" s="64"/>
+      <c r="R91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="S91" s="69"/>
-      <c r="T91" s="67" t="s">
+      <c r="S91" s="65"/>
+      <c r="T91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="U91" s="68"/>
-      <c r="V91" s="68" t="s">
+      <c r="U91" s="64"/>
+      <c r="V91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="W91" s="69"/>
-      <c r="X91" s="67" t="s">
+      <c r="W91" s="65"/>
+      <c r="X91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="Y91" s="68"/>
-      <c r="Z91" s="68" t="s">
+      <c r="Y91" s="64"/>
+      <c r="Z91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AA91" s="69"/>
-      <c r="AB91" s="67" t="s">
+      <c r="AA91" s="65"/>
+      <c r="AB91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AC91" s="68"/>
-      <c r="AD91" s="68" t="s">
+      <c r="AC91" s="64"/>
+      <c r="AD91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AE91" s="69"/>
-      <c r="AF91" s="67" t="s">
+      <c r="AE91" s="65"/>
+      <c r="AF91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AG91" s="68"/>
-      <c r="AH91" s="68" t="s">
+      <c r="AG91" s="64"/>
+      <c r="AH91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AI91" s="69"/>
-      <c r="AJ91" s="68" t="s">
+      <c r="AI91" s="65"/>
+      <c r="AJ91" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AK91" s="68"/>
-      <c r="AL91" s="68" t="s">
+      <c r="AK91" s="64"/>
+      <c r="AL91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AM91" s="69"/>
-      <c r="AN91" s="67" t="s">
+      <c r="AM91" s="65"/>
+      <c r="AN91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AO91" s="68"/>
-      <c r="AP91" s="68" t="s">
+      <c r="AO91" s="64"/>
+      <c r="AP91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AQ91" s="69"/>
-      <c r="AR91" s="67" t="s">
+      <c r="AQ91" s="65"/>
+      <c r="AR91" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AS91" s="68"/>
-      <c r="AT91" s="68" t="s">
+      <c r="AS91" s="64"/>
+      <c r="AT91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AU91" s="69"/>
+      <c r="AU91" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="196">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="AN91:AO91"/>
+    <mergeCell ref="AP91:AQ91"/>
+    <mergeCell ref="AR91:AS91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="AB90:AE90"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="X89:AA89"/>
+    <mergeCell ref="AB89:AE89"/>
+    <mergeCell ref="AT91:AU91"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AH91:AI91"/>
+    <mergeCell ref="AJ91:AK91"/>
+    <mergeCell ref="AL91:AM91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="AF90:AI90"/>
+    <mergeCell ref="AJ90:AM90"/>
+    <mergeCell ref="AN90:AQ90"/>
+    <mergeCell ref="AR90:AU90"/>
+    <mergeCell ref="AJ89:AM89"/>
+    <mergeCell ref="AN89:AQ89"/>
+    <mergeCell ref="AR89:AU89"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:W90"/>
+    <mergeCell ref="X90:AA90"/>
+    <mergeCell ref="AF89:AI89"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -18982,336 +19169,159 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="AF89:AI89"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="AT91:AU91"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AH91:AI91"/>
-    <mergeCell ref="AJ91:AK91"/>
-    <mergeCell ref="AL91:AM91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="AF90:AI90"/>
-    <mergeCell ref="AJ90:AM90"/>
-    <mergeCell ref="AN90:AQ90"/>
-    <mergeCell ref="AR90:AU90"/>
-    <mergeCell ref="AJ89:AM89"/>
-    <mergeCell ref="AN89:AQ89"/>
-    <mergeCell ref="AR89:AU89"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:W90"/>
-    <mergeCell ref="X90:AA90"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="AN91:AO91"/>
-    <mergeCell ref="AP91:AQ91"/>
-    <mergeCell ref="AR91:AS91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="AB90:AE90"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="X89:AA89"/>
-    <mergeCell ref="AB89:AE89"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C18 C5:C12 C53:C54 C83:C84">
-    <cfRule type="expression" dxfId="249" priority="89">
+    <cfRule type="expression" dxfId="248" priority="89">
       <formula>B5=C5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="90">
+    <cfRule type="expression" dxfId="247" priority="90">
       <formula>B5&lt;C5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="91">
+    <cfRule type="expression" dxfId="246" priority="91">
       <formula>B5&gt;C5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="246" priority="86">
+    <cfRule type="expression" dxfId="245" priority="86">
       <formula>B19=C19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="87">
+    <cfRule type="expression" dxfId="244" priority="87">
       <formula>B19&lt;C19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="88">
+    <cfRule type="expression" dxfId="243" priority="88">
       <formula>B19&gt;C19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="243" priority="83">
+    <cfRule type="expression" dxfId="242" priority="83">
       <formula>B21=C21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="84">
+    <cfRule type="expression" dxfId="241" priority="84">
       <formula>B21&lt;C21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="85">
+    <cfRule type="expression" dxfId="240" priority="85">
       <formula>B21&gt;C21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C24">
-    <cfRule type="expression" dxfId="240" priority="80">
+    <cfRule type="expression" dxfId="239" priority="80">
       <formula>B23=C23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="81">
+    <cfRule type="expression" dxfId="238" priority="81">
       <formula>B23&lt;C23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="82">
+    <cfRule type="expression" dxfId="237" priority="82">
       <formula>B23&gt;C23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="237" priority="77">
+    <cfRule type="expression" dxfId="236" priority="77">
       <formula>B25=C25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="78">
+    <cfRule type="expression" dxfId="235" priority="78">
       <formula>B25&lt;C25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="79">
+    <cfRule type="expression" dxfId="234" priority="79">
       <formula>B25&gt;C25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C34">
-    <cfRule type="expression" dxfId="234" priority="74">
+    <cfRule type="expression" dxfId="233" priority="74">
       <formula>B33=C33</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="75">
+    <cfRule type="expression" dxfId="232" priority="75">
       <formula>B33&lt;C33</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="76">
+    <cfRule type="expression" dxfId="231" priority="76">
       <formula>B33&gt;C33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="231" priority="71">
+    <cfRule type="expression" dxfId="230" priority="71">
       <formula>B31=C31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="72">
+    <cfRule type="expression" dxfId="229" priority="72">
       <formula>B31&lt;C31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="73">
+    <cfRule type="expression" dxfId="228" priority="73">
       <formula>B31&gt;C31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="expression" dxfId="228" priority="62">
+    <cfRule type="expression" dxfId="227" priority="62">
       <formula>B43=C43</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="63">
+    <cfRule type="expression" dxfId="226" priority="63">
       <formula>B43&lt;C43</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="64">
+    <cfRule type="expression" dxfId="225" priority="64">
       <formula>B43&gt;C43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:C56">
-    <cfRule type="expression" dxfId="225" priority="52">
+    <cfRule type="expression" dxfId="224" priority="52">
       <formula>B55=C55</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="53">
+    <cfRule type="expression" dxfId="223" priority="53">
       <formula>B55&lt;C55</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="54">
+    <cfRule type="expression" dxfId="222" priority="54">
       <formula>B55&gt;C55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C40">
-    <cfRule type="expression" dxfId="222" priority="68">
+    <cfRule type="expression" dxfId="221" priority="68">
       <formula>B39=C39</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="69">
+    <cfRule type="expression" dxfId="220" priority="69">
       <formula>B39&lt;C39</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="70">
+    <cfRule type="expression" dxfId="219" priority="70">
       <formula>B39&gt;C39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C60">
-    <cfRule type="expression" dxfId="219" priority="49">
+    <cfRule type="expression" dxfId="218" priority="49">
       <formula>B59=C59</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="50">
+    <cfRule type="expression" dxfId="217" priority="50">
       <formula>B59&lt;C59</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="51">
+    <cfRule type="expression" dxfId="216" priority="51">
       <formula>B59&gt;C59</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="expression" dxfId="216" priority="65">
+    <cfRule type="expression" dxfId="215" priority="65">
       <formula>B41=C41</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="66">
+    <cfRule type="expression" dxfId="214" priority="66">
       <formula>B41&lt;C41</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="67">
+    <cfRule type="expression" dxfId="213" priority="67">
       <formula>B41&gt;C41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C46">
-    <cfRule type="expression" dxfId="213" priority="59">
+    <cfRule type="expression" dxfId="212" priority="59">
       <formula>B45=C45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="60">
+    <cfRule type="expression" dxfId="211" priority="60">
       <formula>B45&lt;C45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="61">
+    <cfRule type="expression" dxfId="210" priority="61">
       <formula>B45&gt;C45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C48">
-    <cfRule type="expression" dxfId="210" priority="56">
+    <cfRule type="expression" dxfId="209" priority="56">
       <formula>B47=C47</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="57">
+    <cfRule type="expression" dxfId="208" priority="57">
       <formula>B47&lt;C47</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="58">
+    <cfRule type="expression" dxfId="207" priority="58">
       <formula>B47&gt;C47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88:AU88">
-    <cfRule type="cellIs" dxfId="207" priority="55" operator="greaterThan">
-      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C52">
@@ -19435,7 +19445,7 @@
       <formula>B67&gt;C67</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:AU9 D11:AU26 D10:F10 H10:AU10 D31:AU86">
+  <conditionalFormatting sqref="D5:AU9 D11:AU17 D10:F10 H10:AU10 D31:AU86 D19:AU26 D18 F18:AU18">
     <cfRule type="expression" dxfId="173" priority="14">
       <formula>AND(MOD(ROW()-1,2), NOT(ISBLANK(D5)) )</formula>
     </cfRule>
@@ -19512,116 +19522,116 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="6" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D6" s="61">
+      <c r="D6" s="60">
         <f>SUM(Table24[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="60">
         <f>SUM(F7:AW7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D8" s="61">
+      <c r="D8" s="60">
         <f>SUM(Table24[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="60">
         <f>SUM(F9:AW9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D10" s="61">
+      <c r="D10" s="60">
         <f>SUM(Table24[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="60">
         <f>SUM(F11:AW11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D12" s="61">
+      <c r="D12" s="60">
         <f>SUM(Table24[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="60">
         <f>SUM(F13:AW13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
     </row>
     <row r="14" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D14" s="61">
+      <c r="D14" s="60">
         <f>SUM(Table24[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="60">
         <f>SUM(F15:AW15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
     </row>
     <row r="16" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D16" s="61">
+      <c r="D16" s="60">
         <f>SUM(Table24[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <f>SUM(F17:AW17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
     </row>
     <row r="18" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D18" s="61">
+      <c r="D18" s="60">
         <f>SUM(Table24[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="60">
         <f>SUM(F19:AW19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D20" s="61">
+      <c r="D20" s="60">
         <f>SUM(Table24[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="60">
         <f>SUM(F21:AW21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E7">
